--- a/data/trans_bre/CAGE_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Provincia-trans_bre.xlsx
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.122947394076498</v>
+        <v>-2.118510982033244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.05538032011161</v>
+        <v>-10.89252705682243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.395944310679512</v>
+        <v>-6.15925473701855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.82666360179954</v>
+        <v>-7.373715205280537</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8718058001538007</v>
+        <v>-0.8445990549396777</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4416021380484262</v>
+        <v>0.7641021102189588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.31950294607392</v>
+        <v>-4.453347745774049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.334078018191694</v>
+        <v>0.4823042227330382</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7294536847428541</v>
+        <v>-0.8095312780718045</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>-0.7246750956114747</v>
+        <v>-0.628605431700339</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.295965700288052</v>
+        <v>0.3478929347511806</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.800658685643338</v>
+        <v>-2.688827013127095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.17483667717086</v>
+        <v>-4.183162271046486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.772298149232297</v>
+        <v>-1.918175062090512</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.5998462812743214</v>
+        <v>-0.5751234118503779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.113256061301956</v>
+        <v>-1.111549495762155</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01029639598705896</v>
+        <v>0.01479315689110254</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -807,7 +807,7 @@
         <v>-0.2715703423809129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.991065129271029</v>
+        <v>-3.991065129271028</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr">
@@ -819,7 +819,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.6751433682673491</v>
+        <v>-0.6751433682673489</v>
       </c>
     </row>
     <row r="11">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.458187323523652</v>
+        <v>-1.353731354162942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.02574378512324</v>
+        <v>-8.497457718710017</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.9309907359486169</v>
+        <v>-0.9277418895972818</v>
       </c>
     </row>
     <row r="12">
@@ -855,19 +855,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>1.444867321241133</v>
+        <v>1.615004175167643</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.495565662755162</v>
+        <v>-0.4193600342528206</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.05813018689136042</v>
+        <v>0.1420625865246808</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +891,7 @@
         <v>-0.342538243962845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4968694217705396</v>
+        <v>-0.4968694217705394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.577398390119263</v>
@@ -903,7 +903,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4125562537168803</v>
+        <v>-0.4125562537168802</v>
       </c>
     </row>
     <row r="14">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.009777015596073</v>
+        <v>-2.755975014435271</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.304439762901091</v>
+        <v>-1.247463946822201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.953463336235122</v>
+        <v>-1.731551157172779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.617849544304133</v>
+        <v>-2.532262766244649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5213877880749404</v>
+        <v>0.5465530797844321</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9503889872096813</v>
+        <v>1.056027025244362</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.726245372742405</v>
+        <v>1.904238112540396</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1.352509432267373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.812838051701211</v>
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8845553381711452</v>
+        <v>-0.8785450557994803</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.157755773634771</v>
+        <v>-5.959000514253249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.618260010142944</v>
+        <v>-3.59174369979476</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.723918674469554</v>
+        <v>3.175330934395669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.06498998375448</v>
+        <v>-1.025503957199268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.4441130585433123</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>-0.3819976830983399</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.3690799142292086</v>
+        <v>-0.3690799142292079</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2630681302778709</v>
@@ -1077,7 +1077,7 @@
         <v>-0.5257283398224082</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.13972815429439</v>
+        <v>-0.1397281542943897</v>
       </c>
     </row>
     <row r="20">
@@ -1088,22 +1088,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.378766433690831</v>
+        <v>-2.234070799795519</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.193507734430611</v>
+        <v>-2.003889847205665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.824117074849859</v>
+        <v>-1.842560764274305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.365429766325758</v>
+        <v>-3.198309497175602</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.9839229480345159</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1114,22 +1114,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.12484971351984</v>
+        <v>1.136742493401398</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6842839684899906</v>
+        <v>0.6832774048648739</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.614391093575296</v>
+        <v>3.18574947315335</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>4.386570858934096</v>
+        <v>3.018039202162227</v>
       </c>
     </row>
     <row r="22">
@@ -1153,7 +1153,7 @@
         <v>-1.749523376752449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.003677734507172292</v>
+        <v>0.003677734507171598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1165,7 +1165,7 @@
         <v>-0.6643860630450307</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0008873870695601773</v>
+        <v>0.0008873870695600097</v>
       </c>
     </row>
     <row r="23">
@@ -1176,26 +1176,26 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.282658358279283</v>
+        <v>-1.384824644332524</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.017920984173202</v>
+        <v>-2.878587546018204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.434844874603275</v>
+        <v>-3.480989377376125</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.386177572416104</v>
+        <v>-3.345652166639165</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8920923504024793</v>
+        <v>-0.8902610742835996</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6699797447812681</v>
+        <v>-0.6615006922780974</v>
       </c>
     </row>
     <row r="24">
@@ -1206,26 +1206,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1378962495021057</v>
+        <v>-0.1376381372640355</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5469679740237748</v>
+        <v>-0.5507483267193727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4553896316776684</v>
+        <v>-0.4454195355177473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.491246353050359</v>
+        <v>5.052652810211135</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>-0.1483400800947382</v>
+        <v>-0.2581048712789581</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1730002320186849</v>
+        <v>-0.09796172654886212</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.76139171944217</v>
+        <v>1.794456651827844</v>
       </c>
     </row>
     <row r="25">
@@ -1272,27 +1272,25 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9297188873585507</v>
+        <v>-0.9185662631510225</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.97613232406444</v>
+        <v>-2.747167341126408</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.182740199329673</v>
+        <v>-1.18150266576499</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.620867378083515</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-1.733029149485781</v>
+      </c>
+      <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="I26" s="6" t="inlineStr"/>
-      <c r="J26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1302,24 +1300,24 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3878704881340752</v>
+        <v>0.2858374116609322</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.5499757811556294</v>
+        <v>-0.5270882356155422</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1439760504896855</v>
+        <v>0.2421272505978889</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.317799257296274</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>4.509938272528045</v>
-      </c>
+        <v>2.701351420616913</v>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>-0.2854760598465227</v>
-      </c>
-      <c r="I27" s="6" t="inlineStr"/>
+        <v>-0.4284250101751015</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>2.235519512572528</v>
+      </c>
       <c r="J27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1343,7 +1341,7 @@
         <v>-0.9606471142455177</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.6056602445509003</v>
+        <v>-0.605660244550901</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.6487142589218476</v>
@@ -1355,7 +1353,7 @@
         <v>-0.6684631136089009</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2459156759604983</v>
+        <v>-0.2459156759604986</v>
       </c>
     </row>
     <row r="29">
@@ -1366,28 +1364,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.868029789446578</v>
+        <v>-0.9016707560207763</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.370137757033195</v>
+        <v>-2.333019555150392</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.502119756869986</v>
+        <v>-1.458576158575722</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.698139769948917</v>
+        <v>-1.729145636161205</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.869402852125411</v>
+        <v>-0.8628740400283609</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.9738354940756654</v>
+        <v>-0.9725918711781825</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.8123385635672495</v>
+        <v>-0.8259001500302555</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.5998797872158906</v>
+        <v>-0.5882751792603695</v>
       </c>
     </row>
     <row r="30">
@@ -1398,28 +1396,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1333907173734821</v>
+        <v>-0.1656807253704455</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.263160440627872</v>
+        <v>-1.302685819132369</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5243644901025751</v>
+        <v>-0.4708806536926992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8269796062051014</v>
+        <v>0.683379947444727</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.2093267806426388</v>
+        <v>-0.2726579880916451</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.8185837221456483</v>
+        <v>-0.8199745003292306</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.4091430594195512</v>
+        <v>-0.4096884679831121</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4366484001278848</v>
+        <v>0.3614524893760758</v>
       </c>
     </row>
     <row r="31">
